--- a/biology/Histoire de la zoologie et de la botanique/Wilson_R._Lourenço/Wilson_R._Lourenço.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilson_R._Lourenço/Wilson_R._Lourenço.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wilson_R._Louren%C3%A7o</t>
+          <t>Wilson_R._Lourenço</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilson R. Lourenço est un arachnologiste  franco-brésilien spécialiste des scorpions qui travaille au Muséum national d'histoire naturelle de Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wilson_R._Louren%C3%A7o</t>
+          <t>Wilson_R._Lourenço</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Wilson R. Lourenço est chercheur émérite au Muséum national d'histoire naturelle de Paris. Il a obtenu son doctorat en biologie évolutive de l'Université Pierre et Marie Curie (Paris VI) en 1978 et, son doctorat en biologie des populations, de cette même université en 1985. Il travaille depuis 1971 dans les domaines de la taxonomie, de la biologie, de la biogéographie et écologie des scorpions. Il a publié plus de 600 articles et plusieurs monographies et livres. Biologiste de terrain, il collabore avec des équipes sud-américaines, africaines et asiatiques »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Wilson R. Lourenço est chercheur émérite au Muséum national d'histoire naturelle de Paris. Il a obtenu son doctorat en biologie évolutive de l'Université Pierre et Marie Curie (Paris VI) en 1978 et, son doctorat en biologie des populations, de cette même université en 1985. Il travaille depuis 1971 dans les domaines de la taxonomie, de la biologie, de la biogéographie et écologie des scorpions. Il a publié plus de 600 articles et plusieurs monographies et livres. Biologiste de terrain, il collabore avec des équipes sud-américaines, africaines et asiatiques ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wilson_R._Louren%C3%A7o</t>
+          <t>Wilson_R._Lourenço</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Buthus lourencoi Rossi, Tropea &amp; Yağmur, 2013
 Diplocentrus lourencoi Stockwell, 1988
 Lychas lourencoi Kovarík, 1997
 Microchelifer lourencoi Heurtault, 1983
 Opisthacanthus lourencoi Ythier, 2022
-Rumikiru lourencoi Ojanguren &amp; Affilastro, 2003 (anciennement appelé Orobothriurus lourencoi)[1]
+Rumikiru lourencoi Ojanguren &amp; Affilastro, 2003 (anciennement appelé Orobothriurus lourencoi)
 Simulium lourencoi Py &amp; Daniel, 1988
 Tityus lourencoi Flórez, 1996</t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wilson_R._Louren%C3%A7o</t>
+          <t>Wilson_R._Lourenço</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Afghanobuthus Lourenço, 2005
